--- a/data-raw/bradley.multi.uniformity.xlsx
+++ b/data-raw/bradley.multi.uniformity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB4A06-7A51-42C9-8BFD-D92E6B5B1DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="14340" windowHeight="9000" activeTab="3"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,19 +373,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>243</v>
       </c>
@@ -416,7 +417,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>186</v>
       </c>
@@ -448,7 +449,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>278</v>
       </c>
@@ -480,7 +481,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>297</v>
       </c>
@@ -512,7 +513,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>263</v>
       </c>
@@ -544,7 +545,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>344</v>
       </c>
@@ -576,7 +577,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>347</v>
       </c>
@@ -608,7 +609,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>423</v>
       </c>
@@ -640,7 +641,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>271</v>
       </c>
@@ -672,7 +673,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>305</v>
       </c>
@@ -704,7 +705,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>261</v>
       </c>
@@ -742,16 +743,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>212</v>
       </c>
@@ -783,7 +784,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>177</v>
       </c>
@@ -815,7 +816,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>125</v>
       </c>
@@ -847,7 +848,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>179</v>
       </c>
@@ -879,7 +880,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>157</v>
       </c>
@@ -911,7 +912,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>183</v>
       </c>
@@ -943,7 +944,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>215</v>
       </c>
@@ -975,7 +976,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>180</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>146</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>148</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>146</v>
       </c>
@@ -1109,16 +1110,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>107</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>99</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>70</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>89</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>82</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>94</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>103</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>96</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>118</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>91</v>
       </c>
@@ -1476,16 +1477,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>458</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>432</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>445</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>375</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>408</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>489</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>448</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>428</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>359</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>427</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>685</v>
       </c>
